--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_3.xlsx
@@ -482,772 +482,772 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3032149099340063</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.013982325768811</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8508914890526987</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3272698970495489</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7711358070373535</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G2" t="n">
-        <v>2.388215780258179</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2188912779092789</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I2" t="n">
-        <v>1.367357015609741</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_1</t>
+          <t>model_2_3_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4143939354853799</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C3" t="n">
-        <v>-3.896180947108151</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6586548219813425</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4273433812987959</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6480933427810669</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G3" t="n">
-        <v>2.33210563659668</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5010946989059448</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I3" t="n">
-        <v>1.470453143119812</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_9</t>
+          <t>model_2_3_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4679081805038388</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.868290328310978</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1488093243395264</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7624011090426943</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5888687968254089</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G4" t="n">
-        <v>2.318820953369141</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H4" t="n">
-        <v>1.249547839164734</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I4" t="n">
-        <v>1.815630555152893</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_8</t>
+          <t>model_2_3_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.470556631748647</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.815826593236611</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1445221946475189</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.7524362538647025</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5859377980232239</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G5" t="n">
-        <v>2.293831825256348</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H5" t="n">
-        <v>1.255841374397278</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I5" t="n">
-        <v>1.805364727973938</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_11</t>
+          <t>model_2_3_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4711419917289678</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.708574929577557</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1070630453136485</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7513024653409675</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5852899551391602</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G6" t="n">
-        <v>2.242746591567993</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H6" t="n">
-        <v>1.310831427574158</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I6" t="n">
-        <v>1.804196715354919</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_10</t>
+          <t>model_2_3_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4715939301047881</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.778025289246146</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1349421445623322</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.749607711403232</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5847898125648499</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G7" t="n">
-        <v>2.275826454162598</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H7" t="n">
-        <v>1.269904851913452</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I7" t="n">
-        <v>1.802450895309448</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_12</t>
+          <t>model_2_3_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4727452780504374</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.682268752226868</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1059194290208747</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7456351533842231</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5835156440734863</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G8" t="n">
-        <v>2.23021674156189</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H8" t="n">
-        <v>1.312510251998901</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I8" t="n">
-        <v>1.798358201980591</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_13</t>
+          <t>model_2_3_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4730704320166847</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.667387507594635</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1021844237595404</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.7444937341899618</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5831557512283325</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G9" t="n">
-        <v>2.2231285572052</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H9" t="n">
-        <v>1.31799328327179</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I9" t="n">
-        <v>1.797182321548462</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_14</t>
+          <t>model_2_3_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4737188483634858</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.653211479323143</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1004259934838648</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7422015418801857</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5824381709098816</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G10" t="n">
-        <v>2.216376543045044</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H10" t="n">
-        <v>1.320574641227722</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I10" t="n">
-        <v>1.794820785522461</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_20</t>
+          <t>model_2_3_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4741340490965806</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.585114223143787</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07761616346567635</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.7408316608245213</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5819786787033081</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G11" t="n">
-        <v>2.183941125869751</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H11" t="n">
-        <v>1.354059457778931</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I11" t="n">
-        <v>1.793409705162048</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_22</t>
+          <t>model_2_3_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.4741366335922437</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.572472905529293</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07299411573199499</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7408353836133641</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5819758176803589</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G12" t="n">
-        <v>2.177919864654541</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H12" t="n">
-        <v>1.360844492912292</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I12" t="n">
-        <v>1.793413400650024</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_18</t>
+          <t>model_2_3_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4741421525763524</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.601310502021494</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08359819413252234</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.7407847615580438</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F13" t="n">
-        <v>0.581969678401947</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G13" t="n">
-        <v>2.191655397415161</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H13" t="n">
-        <v>1.345277786254883</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I13" t="n">
-        <v>1.793361306190491</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_16</t>
+          <t>model_2_3_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4741758741398686</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.614937937824852</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08878838418883972</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.74063773435153</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5819323658943176</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G14" t="n">
-        <v>2.198146343231201</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H14" t="n">
-        <v>1.337658643722534</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I14" t="n">
-        <v>1.793209910392761</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_21</t>
+          <t>model_2_3_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4742380812143918</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.577591363109798</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07540542996212429</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.7404704974482852</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5818635225296021</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G15" t="n">
-        <v>2.180357933044434</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H15" t="n">
-        <v>1.357304811477661</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I15" t="n">
-        <v>1.793037533760071</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_19</t>
+          <t>model_2_3_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4742395197428149</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.592021335357513</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08070286299545282</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.7404497730857382</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5818619728088379</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G16" t="n">
-        <v>2.187231063842773</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H16" t="n">
-        <v>1.349528193473816</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I16" t="n">
-        <v>1.793016195297241</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_17</t>
+          <t>model_2_3_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4742661263741657</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.607068586411228</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08636677717486352</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.7403352484353765</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5818324685096741</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G17" t="n">
-        <v>2.194397926330566</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H17" t="n">
-        <v>1.341213583946228</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I17" t="n">
-        <v>1.792898297309875</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_24</t>
+          <t>model_2_3_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4743492637333666</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.553725412616201</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D18" t="n">
-        <v>0.06724693618680677</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.7401010409768431</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5817404389381409</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G18" t="n">
-        <v>2.168990135192871</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H18" t="n">
-        <v>1.369281530380249</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I18" t="n">
-        <v>1.792656898498535</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_15</t>
+          <t>model_2_3_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.474392232524483</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.628778997844772</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09505345252371833</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.739826917370781</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5816928744316101</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G19" t="n">
-        <v>2.204739332199097</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H19" t="n">
-        <v>1.328461647033691</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I19" t="n">
-        <v>1.792374491691589</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_23</t>
+          <t>model_2_3_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4745769911354321</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.564634719679929</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07244889410348121</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.7392838959051573</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5814884305000305</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G20" t="n">
-        <v>2.17418646812439</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H20" t="n">
-        <v>1.361644983291626</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I20" t="n">
-        <v>1.791815161705017</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_7</t>
+          <t>model_2_3_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4877427874536361</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C21" t="n">
-        <v>-3.668348218958974</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1863316229789183</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6883028415625299</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5669177770614624</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G21" t="n">
-        <v>2.223586320877075</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H21" t="n">
-        <v>1.194465160369873</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I21" t="n">
-        <v>1.739294290542603</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_5</t>
+          <t>model_2_3_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5063485520905116</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.890678772947855</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1156985622269286</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.5453153128773938</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5463266968727112</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G22" t="n">
-        <v>1.853173613548279</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H22" t="n">
-        <v>1.298154592514038</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I22" t="n">
-        <v>1.591988086700439</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_6</t>
+          <t>model_2_3_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5118997624886834</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.320166445319267</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2031367286480006</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5918089140650287</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5401831269264221</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G23" t="n">
-        <v>2.057743310928345</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H23" t="n">
-        <v>1.169795393943787</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I23" t="n">
-        <v>1.639886021614075</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_4</t>
+          <t>model_2_3_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5558356308936104</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.202145123091364</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1574064704764115</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3488113540199376</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4915590882301331</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G24" t="n">
-        <v>1.525217413902283</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H24" t="n">
-        <v>1.236927270889282</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I24" t="n">
-        <v>1.389549255371094</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_3</t>
+          <t>model_2_3_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.619675002741755</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.398995566022853</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2764271897845345</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.07241272158348289</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4209077060222626</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G25" t="n">
-        <v>1.14266836643219</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H25" t="n">
-        <v>1.062204837799072</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I25" t="n">
-        <v>1.104802489280701</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_3_2</t>
+          <t>model_2_3_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.6478923559058728</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.410035124028144</v>
+        <v>0.2833859744320865</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4610452770697253</v>
+        <v>-0.1405705737399656</v>
       </c>
       <c r="E26" t="n">
-        <v>0.04868319028607149</v>
+        <v>0.01893983943866462</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3896793723106384</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G26" t="n">
-        <v>1.147926688194275</v>
+        <v>0.273603230714798</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7911855578422546</v>
+        <v>1.107705950737</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9800492525100708</v>
+        <v>0.6661221385002136</v>
       </c>
     </row>
   </sheetData>
